--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2206211.109913439</v>
+        <v>-2208825.388529891</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>355.6144343881386</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>88.59266126419652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.607293590734</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851256</v>
+        <v>52.86845664851259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674305</v>
+        <v>14.08691327674306</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.84081769389021</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.28995390759971</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792916</v>
+        <v>94.83943180792917</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2190043347733</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>53.85366032725288</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>64.0901856147613</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>89.17244621343258</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.41670903610059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>63.73277769123531</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2537595499113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>114.5720200730643</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6351755834639</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176134</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>90.14863908058103</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>246.47559384229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>269.0987184306186</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4765410832876</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>229.293894414648</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877059936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>83.8728463917173</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>22.61263105777323</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856559</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960826</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652535</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541834</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652524</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652581</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1282.821523404877</v>
+        <v>1267.811993169529</v>
       </c>
       <c r="C2" t="n">
-        <v>913.8590064644652</v>
+        <v>1267.811993169529</v>
       </c>
       <c r="D2" t="n">
-        <v>913.8590064644652</v>
+        <v>909.5462945627789</v>
       </c>
       <c r="E2" t="n">
-        <v>913.859006464465</v>
+        <v>523.7580419645348</v>
       </c>
       <c r="F2" t="n">
-        <v>502.8731016748574</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443555</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="H2" t="n">
         <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.3696557117832</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734994</v>
+        <v>223.6389510735003</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447442</v>
+        <v>520.5745606447449</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185029</v>
+        <v>925.8512030185038</v>
       </c>
       <c r="M2" t="n">
         <v>1408.468993552358</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877249</v>
+        <v>1903.50985287725</v>
       </c>
       <c r="O2" t="n">
         <v>2357.627637384227</v>
@@ -4349,31 +4349,31 @@
         <v>2710.705659215712</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719475</v>
+        <v>2927.679802719474</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.48278558916</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338334</v>
+        <v>2851.450538338333</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152602</v>
+        <v>2644.1777271526</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788381</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.56069544481</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.56069544481</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="X2" t="n">
-        <v>2059.56069544481</v>
+        <v>2017.157824527299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.421363468999</v>
+        <v>1627.018492551488</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>73.59886104182668</v>
       </c>
       <c r="I3" t="n">
-        <v>59.3696557117832</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148953</v>
+        <v>138.3894757148952</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168904</v>
+        <v>351.6017589168903</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671331</v>
+        <v>684.6145268671329</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1092.581588039814</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324652</v>
+        <v>1525.754968293606</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769182</v>
+        <v>1899.804188738136</v>
       </c>
       <c r="P3" t="n">
         <v>2420.426415694429</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>445.8687424774349</v>
+        <v>1590.691486049509</v>
       </c>
       <c r="C4" t="n">
-        <v>445.8687424774349</v>
+        <v>1421.755303121602</v>
       </c>
       <c r="D4" t="n">
-        <v>445.8687424774349</v>
+        <v>1383.532254945955</v>
       </c>
       <c r="E4" t="n">
-        <v>445.8687424774348</v>
+        <v>1383.532254945955</v>
       </c>
       <c r="F4" t="n">
-        <v>298.9787949795244</v>
+        <v>1236.642307448045</v>
       </c>
       <c r="G4" t="n">
-        <v>298.9787949795244</v>
+        <v>1236.642307448045</v>
       </c>
       <c r="H4" t="n">
-        <v>151.5817303659242</v>
+        <v>1236.642307448045</v>
       </c>
       <c r="I4" t="n">
-        <v>59.3696557117832</v>
+        <v>1236.642307448045</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945989</v>
+        <v>1272.569327125722</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778211</v>
+        <v>1461.445293514083</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386281</v>
+        <v>1758.66793737489</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945961</v>
+        <v>2082.436664730858</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.66886009458</v>
+        <v>2403.941511830842</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944345</v>
+        <v>2684.886979680607</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290282</v>
+        <v>2901.763680026543</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852897</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>2872.685379722564</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493185</v>
+        <v>2872.685379722564</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108942</v>
+        <v>2872.685379722564</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202823</v>
+        <v>2583.575274333904</v>
       </c>
       <c r="V4" t="n">
-        <v>735.2859125143955</v>
+        <v>2328.890786128017</v>
       </c>
       <c r="W4" t="n">
-        <v>445.8687424774349</v>
+        <v>2039.473616091056</v>
       </c>
       <c r="X4" t="n">
-        <v>445.8687424774349</v>
+        <v>1811.484065193039</v>
       </c>
       <c r="Y4" t="n">
-        <v>445.8687424774349</v>
+        <v>1590.691486049509</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>535.9822032813818</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,10 +4577,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2691.069367567292</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2691.069367567292</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.603609306213</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.221370095127</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.454754664653</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1682.315766249263</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1811.565234883377</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1811.565234883377</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.854848228773</v>
+        <v>1522.462368009021</v>
       </c>
       <c r="V10" t="n">
-        <v>917.1703600228861</v>
+        <v>1267.777879803134</v>
       </c>
       <c r="W10" t="n">
-        <v>917.1703600228861</v>
+        <v>978.3607097661732</v>
       </c>
       <c r="X10" t="n">
-        <v>689.1808091248688</v>
+        <v>750.3711588681558</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>529.5785797246257</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5127,16 +5127,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400714</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121646</v>
+        <v>853.5941094450257</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>703.4774700326899</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>555.5643764502968</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>408.6744289523864</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5203,10 +5203,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138409</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703112</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192497</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660704</v>
+        <v>803.864119183223</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381635</v>
+        <v>634.9279362553161</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381635</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557704</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437857</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963101</v>
+        <v>985.5125840134627</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>571.6607764188016</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908947</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908947</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908947</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908947</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>974.1018203925714</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>753.3092412490413</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536385</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257315</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133958</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310025</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,7 +5908,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038341</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788499</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138399</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138399</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400697</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400697</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400697</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576766</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576766</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725566</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
         <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138402</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703095</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,19 +6306,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6409,13 +6409,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6424,7 +6424,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942649</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345468</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,7 +6622,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6643,13 +6643,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6853,25 +6853,25 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>208.988674094227</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654475</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,7 +7248,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958011</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,46 +7336,46 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961522</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961522</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380722</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>242.1695121525718</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>242.1695121525723</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447061</v>
+        <v>9.872575263447089</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>27.11940727534193</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>322.6219514102176</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>110.7746553243221</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22720,10 +22720,10 @@
         <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>9.013392379333622</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.828130053814931e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.586274966451</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>75.37549921168781</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>39.70888054695413</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>17.42427990597236</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.35543909864968</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>57.22910392194301</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.8202214113379</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>202.6501519448737</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6820817884507</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>138.4949402405084</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1361729.657920957</v>
+        <v>1361729.657920958</v>
       </c>
     </row>
     <row r="9">
@@ -26317,37 +26317,37 @@
         <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="E2" t="n">
+        <v>60535.99497675047</v>
+      </c>
+      <c r="F2" t="n">
         <v>60535.99497675046</v>
-      </c>
-      <c r="F2" t="n">
-        <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982126</v>
@@ -26366,13 +26366,13 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973013</v>
+        <v>95186.49343973043</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818044</v>
+        <v>213599.1454818043</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359953</v>
+        <v>22978.01038359961</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26430,34 +26430,34 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.08828678123</v>
       </c>
-      <c r="H4" t="n">
-        <v>10557.08828678122</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678122</v>
-      </c>
       <c r="J4" t="n">
+        <v>18547.9475498747</v>
+      </c>
+      <c r="K4" t="n">
         <v>18547.94754987469</v>
       </c>
-      <c r="K4" t="n">
-        <v>18547.94754987466</v>
-      </c>
       <c r="L4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.9475498747</v>
       </c>
       <c r="M4" t="n">
         <v>18547.94754987468</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="O4" t="n">
+        <v>18547.94754987467</v>
+      </c>
+      <c r="P4" t="n">
         <v>18547.94754987468</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18547.94754987467</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1295625.950107965</v>
+        <v>-1296055.508974553</v>
       </c>
       <c r="C6" t="n">
-        <v>-231286.4243194347</v>
+        <v>-231286.424319435</v>
       </c>
       <c r="D6" t="n">
         <v>-136099.9308797045</v>
       </c>
       <c r="E6" t="n">
-        <v>-376556.0849412931</v>
+        <v>-376590.8228667287</v>
       </c>
       <c r="F6" t="n">
-        <v>-51143.62313393787</v>
+        <v>-51178.36105937355</v>
       </c>
       <c r="G6" t="n">
-        <v>-51143.6231339379</v>
+        <v>-51178.36105937355</v>
       </c>
       <c r="H6" t="n">
-        <v>-51143.62313393784</v>
+        <v>-51178.36105937356</v>
       </c>
       <c r="I6" t="n">
-        <v>-51143.62313393789</v>
+        <v>-51178.36105937358</v>
       </c>
       <c r="J6" t="n">
         <v>-273733.0761457732</v>
       </c>
       <c r="K6" t="n">
-        <v>-83111.94104756834</v>
+        <v>-83111.94104756846</v>
       </c>
       <c r="L6" t="n">
-        <v>-60133.9306639688</v>
+        <v>-60133.93066396885</v>
       </c>
       <c r="M6" t="n">
-        <v>-145188.9585994807</v>
+        <v>-145188.9585994806</v>
       </c>
       <c r="N6" t="n">
-        <v>-60133.93066396877</v>
+        <v>-60133.93066396881</v>
       </c>
       <c r="O6" t="n">
-        <v>-79561.64865760061</v>
+        <v>-79561.64865760057</v>
       </c>
       <c r="P6" t="n">
         <v>-60133.93066396881</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.12069639729</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396915</v>
+        <v>72.85564646396938</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.12069639729</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500301</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.12069639729</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500301</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.12069639729</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500301</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>353.0223854144585</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.6620728553736</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>100.5965791180093</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>290.9502639294477</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.9841791061423</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>75.19700525837763</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>36.57666262214897</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720918</v>
+        <v>4.088124840720917</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503312</v>
+        <v>41.8675085250331</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
@@ -31051,37 +31051,37 @@
         <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078539</v>
+        <v>520.0248102078538</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020669</v>
+        <v>645.1367608020666</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382374</v>
+        <v>717.8389509382373</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419358</v>
+        <v>729.4543356419357</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570172</v>
+        <v>688.8030442570169</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517194</v>
+        <v>587.8774622517193</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934014</v>
+        <v>441.4714913934013</v>
       </c>
       <c r="R2" t="n">
         <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792801</v>
+        <v>93.158144807928</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025583</v>
+        <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576734</v>
+        <v>0.3270499872576733</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863086</v>
+        <v>2.187339625863085</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030928</v>
+        <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467203</v>
+        <v>75.30971957467202</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698102</v>
@@ -31133,19 +31133,19 @@
         <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629476</v>
+        <v>474.9309130629475</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004843</v>
+        <v>554.2219745004842</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265575</v>
+        <v>568.8905810265574</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429595</v>
+        <v>520.4237398429594</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913466</v>
+        <v>417.6859325913465</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224528</v>
@@ -31154,10 +31154,10 @@
         <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092176</v>
+        <v>40.62887419092175</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404275</v>
+        <v>8.816513667404273</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541504</v>
@@ -31203,40 +31203,40 @@
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032494</v>
+        <v>55.14712864032493</v>
       </c>
       <c r="J4" t="n">
-        <v>129.649098983013</v>
+        <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585709</v>
+        <v>213.0532962585708</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283779</v>
+        <v>272.6348675283778</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795413</v>
+        <v>287.4552415795412</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288362</v>
+        <v>280.6201984288361</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443084</v>
+        <v>259.1981729443083</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219113</v>
+        <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924033</v>
+        <v>82.45395956924031</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878563</v>
+        <v>31.95799443878562</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881714</v>
+        <v>7.835293367881712</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162578</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>241.3877517590788</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734511</v>
+        <v>165.928581173451</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628733</v>
+        <v>299.9349591628732</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320796</v>
+        <v>409.3703458320794</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109647</v>
+        <v>487.4927177109646</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453449</v>
+        <v>500.0412720453448</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353304</v>
+        <v>458.7048328353302</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964499</v>
+        <v>356.6444664964498</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189519</v>
+        <v>219.1658015189518</v>
       </c>
       <c r="R2" t="n">
-        <v>41.2151342118035</v>
+        <v>41.21513421180344</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314354</v>
+        <v>79.81800000314348</v>
       </c>
       <c r="K3" t="n">
         <v>215.3659426282779</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830734</v>
+        <v>336.3765332830733</v>
       </c>
       <c r="M3" t="n">
-        <v>654.2574527310378</v>
+        <v>412.0879405784659</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432242</v>
+        <v>437.5488689432241</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985151</v>
+        <v>377.827495398515</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770163</v>
+        <v>525.8810373295886</v>
       </c>
       <c r="Q3" t="n">
         <v>139.2302104364313</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.2899188663402</v>
+        <v>36.28991886634017</v>
       </c>
       <c r="K4" t="n">
         <v>190.783804432688</v>
@@ -34863,19 +34863,19 @@
         <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413819</v>
+        <v>327.0391185413818</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080648</v>
+        <v>324.7523708080647</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7833008583481</v>
+        <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868048</v>
+        <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183431</v>
+        <v>67.39303592183428</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462705</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924121</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591396</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
